--- a/data/dataframe/10003.xlsx
+++ b/data/dataframe/10003.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shujie/jlab/CJ/CJ-database/data/JAM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095E7741-E1CC-5440-96F7-69303099E118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEB71A5-BAEA-8D44-A720-1C3ACB5A5473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="16380" windowHeight="8200" tabRatio="985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33400" yWindow="2860" windowWidth="30720" windowHeight="17020" tabRatio="985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="30">
   <si>
     <t>Q2</t>
   </si>
@@ -120,10 +120,13 @@
     <t>p</t>
   </si>
   <si>
-    <t>e</t>
+    <t>nc</t>
   </si>
   <si>
-    <t>nc</t>
+    <t>*%norm_c</t>
+  </si>
+  <si>
+    <t>e_minus</t>
   </si>
 </sst>
 </file>
@@ -186,9 +189,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -226,7 +229,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -332,7 +335,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -474,7 +477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13624,7 +13627,7 @@
         <v>5.5</v>
       </c>
       <c r="J258">
-        <f t="shared" ref="J258:J321" si="30">I258-A258/B258/2/0.938</f>
+        <f t="shared" ref="J258:J266" si="30">I258-A258/B258/2/0.938</f>
         <v>0.94479315567693867</v>
       </c>
       <c r="K258">
@@ -13632,11 +13635,11 @@
         <v>0.82821942624055656</v>
       </c>
       <c r="L258">
-        <f t="shared" ref="L258:L321" si="32">1+(1-K258)^2+2*0.938*0.938*B258*B258*K258*K258/A258</f>
+        <f t="shared" ref="L258:L266" si="32">1+(1-K258)^2+2*0.938*0.938*B258*B258*K258*K258/A258</f>
         <v>1.1426490613888922</v>
       </c>
       <c r="M258">
-        <f t="shared" ref="M258:M321" si="33">C258*K258/J258*A258*A258/2*137*137/L258/389380</f>
+        <f t="shared" ref="M258:M266" si="33">C258*K258/J258*A258*A258/2*137*137/L258/389380</f>
         <v>1.4727503388561764E-2</v>
       </c>
       <c r="N258">
@@ -14002,8 +14005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="A230" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14031,7 +14034,7 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
@@ -14111,10 +14114,10 @@
         <v>26</v>
       </c>
       <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -14173,10 +14176,10 @@
         <v>26</v>
       </c>
       <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
         <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>28</v>
       </c>
       <c r="P3">
         <v>1</v>
@@ -14235,10 +14238,10 @@
         <v>26</v>
       </c>
       <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="s">
         <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>28</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -14297,10 +14300,10 @@
         <v>26</v>
       </c>
       <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="s">
         <v>27</v>
-      </c>
-      <c r="O5" t="s">
-        <v>28</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -14359,10 +14362,10 @@
         <v>26</v>
       </c>
       <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="s">
         <v>27</v>
-      </c>
-      <c r="O6" t="s">
-        <v>28</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -14421,10 +14424,10 @@
         <v>26</v>
       </c>
       <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" t="s">
         <v>27</v>
-      </c>
-      <c r="O7" t="s">
-        <v>28</v>
       </c>
       <c r="P7">
         <v>1</v>
@@ -14483,10 +14486,10 @@
         <v>26</v>
       </c>
       <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" t="s">
         <v>27</v>
-      </c>
-      <c r="O8" t="s">
-        <v>28</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -14545,10 +14548,10 @@
         <v>26</v>
       </c>
       <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" t="s">
         <v>27</v>
-      </c>
-      <c r="O9" t="s">
-        <v>28</v>
       </c>
       <c r="P9">
         <v>1</v>
@@ -14607,10 +14610,10 @@
         <v>26</v>
       </c>
       <c r="N10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" t="s">
         <v>27</v>
-      </c>
-      <c r="O10" t="s">
-        <v>28</v>
       </c>
       <c r="P10">
         <v>1</v>
@@ -14669,10 +14672,10 @@
         <v>26</v>
       </c>
       <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" t="s">
         <v>27</v>
-      </c>
-      <c r="O11" t="s">
-        <v>28</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -14731,10 +14734,10 @@
         <v>26</v>
       </c>
       <c r="N12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" t="s">
         <v>27</v>
-      </c>
-      <c r="O12" t="s">
-        <v>28</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -14793,10 +14796,10 @@
         <v>26</v>
       </c>
       <c r="N13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" t="s">
         <v>27</v>
-      </c>
-      <c r="O13" t="s">
-        <v>28</v>
       </c>
       <c r="P13">
         <v>1</v>
@@ -14855,10 +14858,10 @@
         <v>26</v>
       </c>
       <c r="N14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" t="s">
         <v>27</v>
-      </c>
-      <c r="O14" t="s">
-        <v>28</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -14917,10 +14920,10 @@
         <v>26</v>
       </c>
       <c r="N15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" t="s">
         <v>27</v>
-      </c>
-      <c r="O15" t="s">
-        <v>28</v>
       </c>
       <c r="P15">
         <v>1</v>
@@ -14979,10 +14982,10 @@
         <v>26</v>
       </c>
       <c r="N16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" t="s">
         <v>27</v>
-      </c>
-      <c r="O16" t="s">
-        <v>28</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -15041,10 +15044,10 @@
         <v>26</v>
       </c>
       <c r="N17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" t="s">
         <v>27</v>
-      </c>
-      <c r="O17" t="s">
-        <v>28</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -15103,10 +15106,10 @@
         <v>26</v>
       </c>
       <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="s">
         <v>27</v>
-      </c>
-      <c r="O18" t="s">
-        <v>28</v>
       </c>
       <c r="P18">
         <v>1</v>
@@ -15165,10 +15168,10 @@
         <v>26</v>
       </c>
       <c r="N19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" t="s">
         <v>27</v>
-      </c>
-      <c r="O19" t="s">
-        <v>28</v>
       </c>
       <c r="P19">
         <v>1</v>
@@ -15227,10 +15230,10 @@
         <v>26</v>
       </c>
       <c r="N20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" t="s">
         <v>27</v>
-      </c>
-      <c r="O20" t="s">
-        <v>28</v>
       </c>
       <c r="P20">
         <v>1</v>
@@ -15289,10 +15292,10 @@
         <v>26</v>
       </c>
       <c r="N21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" t="s">
         <v>27</v>
-      </c>
-      <c r="O21" t="s">
-        <v>28</v>
       </c>
       <c r="P21">
         <v>1</v>
@@ -15351,10 +15354,10 @@
         <v>26</v>
       </c>
       <c r="N22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" t="s">
         <v>27</v>
-      </c>
-      <c r="O22" t="s">
-        <v>28</v>
       </c>
       <c r="P22">
         <v>1</v>
@@ -15413,10 +15416,10 @@
         <v>26</v>
       </c>
       <c r="N23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" t="s">
         <v>27</v>
-      </c>
-      <c r="O23" t="s">
-        <v>28</v>
       </c>
       <c r="P23">
         <v>1</v>
@@ -15475,10 +15478,10 @@
         <v>26</v>
       </c>
       <c r="N24" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" t="s">
         <v>27</v>
-      </c>
-      <c r="O24" t="s">
-        <v>28</v>
       </c>
       <c r="P24">
         <v>1</v>
@@ -15537,10 +15540,10 @@
         <v>26</v>
       </c>
       <c r="N25" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" t="s">
         <v>27</v>
-      </c>
-      <c r="O25" t="s">
-        <v>28</v>
       </c>
       <c r="P25">
         <v>1</v>
@@ -15599,10 +15602,10 @@
         <v>26</v>
       </c>
       <c r="N26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" t="s">
         <v>27</v>
-      </c>
-      <c r="O26" t="s">
-        <v>28</v>
       </c>
       <c r="P26">
         <v>1</v>
@@ -15661,10 +15664,10 @@
         <v>26</v>
       </c>
       <c r="N27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" t="s">
         <v>27</v>
-      </c>
-      <c r="O27" t="s">
-        <v>28</v>
       </c>
       <c r="P27">
         <v>1</v>
@@ -15723,10 +15726,10 @@
         <v>26</v>
       </c>
       <c r="N28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" t="s">
         <v>27</v>
-      </c>
-      <c r="O28" t="s">
-        <v>28</v>
       </c>
       <c r="P28">
         <v>1</v>
@@ -15785,10 +15788,10 @@
         <v>26</v>
       </c>
       <c r="N29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" t="s">
         <v>27</v>
-      </c>
-      <c r="O29" t="s">
-        <v>28</v>
       </c>
       <c r="P29">
         <v>1</v>
@@ -15847,10 +15850,10 @@
         <v>26</v>
       </c>
       <c r="N30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" t="s">
         <v>27</v>
-      </c>
-      <c r="O30" t="s">
-        <v>28</v>
       </c>
       <c r="P30">
         <v>1</v>
@@ -15909,10 +15912,10 @@
         <v>26</v>
       </c>
       <c r="N31" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" t="s">
         <v>27</v>
-      </c>
-      <c r="O31" t="s">
-        <v>28</v>
       </c>
       <c r="P31">
         <v>1</v>
@@ -15971,10 +15974,10 @@
         <v>26</v>
       </c>
       <c r="N32" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" t="s">
         <v>27</v>
-      </c>
-      <c r="O32" t="s">
-        <v>28</v>
       </c>
       <c r="P32">
         <v>1</v>
@@ -16033,10 +16036,10 @@
         <v>26</v>
       </c>
       <c r="N33" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" t="s">
         <v>27</v>
-      </c>
-      <c r="O33" t="s">
-        <v>28</v>
       </c>
       <c r="P33">
         <v>1</v>
@@ -16095,10 +16098,10 @@
         <v>26</v>
       </c>
       <c r="N34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" t="s">
         <v>27</v>
-      </c>
-      <c r="O34" t="s">
-        <v>28</v>
       </c>
       <c r="P34">
         <v>1</v>
@@ -16157,10 +16160,10 @@
         <v>26</v>
       </c>
       <c r="N35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" t="s">
         <v>27</v>
-      </c>
-      <c r="O35" t="s">
-        <v>28</v>
       </c>
       <c r="P35">
         <v>1</v>
@@ -16219,10 +16222,10 @@
         <v>26</v>
       </c>
       <c r="N36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" t="s">
         <v>27</v>
-      </c>
-      <c r="O36" t="s">
-        <v>28</v>
       </c>
       <c r="P36">
         <v>1</v>
@@ -16281,10 +16284,10 @@
         <v>26</v>
       </c>
       <c r="N37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" t="s">
         <v>27</v>
-      </c>
-      <c r="O37" t="s">
-        <v>28</v>
       </c>
       <c r="P37">
         <v>1</v>
@@ -16343,10 +16346,10 @@
         <v>26</v>
       </c>
       <c r="N38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" t="s">
         <v>27</v>
-      </c>
-      <c r="O38" t="s">
-        <v>28</v>
       </c>
       <c r="P38">
         <v>1</v>
@@ -16405,10 +16408,10 @@
         <v>26</v>
       </c>
       <c r="N39" t="s">
+        <v>29</v>
+      </c>
+      <c r="O39" t="s">
         <v>27</v>
-      </c>
-      <c r="O39" t="s">
-        <v>28</v>
       </c>
       <c r="P39">
         <v>1</v>
@@ -16467,10 +16470,10 @@
         <v>26</v>
       </c>
       <c r="N40" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" t="s">
         <v>27</v>
-      </c>
-      <c r="O40" t="s">
-        <v>28</v>
       </c>
       <c r="P40">
         <v>1</v>
@@ -16529,10 +16532,10 @@
         <v>26</v>
       </c>
       <c r="N41" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" t="s">
         <v>27</v>
-      </c>
-      <c r="O41" t="s">
-        <v>28</v>
       </c>
       <c r="P41">
         <v>1</v>
@@ -16591,10 +16594,10 @@
         <v>26</v>
       </c>
       <c r="N42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" t="s">
         <v>27</v>
-      </c>
-      <c r="O42" t="s">
-        <v>28</v>
       </c>
       <c r="P42">
         <v>1</v>
@@ -16653,10 +16656,10 @@
         <v>26</v>
       </c>
       <c r="N43" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" t="s">
         <v>27</v>
-      </c>
-      <c r="O43" t="s">
-        <v>28</v>
       </c>
       <c r="P43">
         <v>1</v>
@@ -16715,10 +16718,10 @@
         <v>26</v>
       </c>
       <c r="N44" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" t="s">
         <v>27</v>
-      </c>
-      <c r="O44" t="s">
-        <v>28</v>
       </c>
       <c r="P44">
         <v>1</v>
@@ -16777,10 +16780,10 @@
         <v>26</v>
       </c>
       <c r="N45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" t="s">
         <v>27</v>
-      </c>
-      <c r="O45" t="s">
-        <v>28</v>
       </c>
       <c r="P45">
         <v>1</v>
@@ -16839,10 +16842,10 @@
         <v>26</v>
       </c>
       <c r="N46" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" t="s">
         <v>27</v>
-      </c>
-      <c r="O46" t="s">
-        <v>28</v>
       </c>
       <c r="P46">
         <v>1</v>
@@ -16901,10 +16904,10 @@
         <v>26</v>
       </c>
       <c r="N47" t="s">
+        <v>29</v>
+      </c>
+      <c r="O47" t="s">
         <v>27</v>
-      </c>
-      <c r="O47" t="s">
-        <v>28</v>
       </c>
       <c r="P47">
         <v>1</v>
@@ -16963,10 +16966,10 @@
         <v>26</v>
       </c>
       <c r="N48" t="s">
+        <v>29</v>
+      </c>
+      <c r="O48" t="s">
         <v>27</v>
-      </c>
-      <c r="O48" t="s">
-        <v>28</v>
       </c>
       <c r="P48">
         <v>1</v>
@@ -17025,10 +17028,10 @@
         <v>26</v>
       </c>
       <c r="N49" t="s">
+        <v>29</v>
+      </c>
+      <c r="O49" t="s">
         <v>27</v>
-      </c>
-      <c r="O49" t="s">
-        <v>28</v>
       </c>
       <c r="P49">
         <v>1</v>
@@ -17087,10 +17090,10 @@
         <v>26</v>
       </c>
       <c r="N50" t="s">
+        <v>29</v>
+      </c>
+      <c r="O50" t="s">
         <v>27</v>
-      </c>
-      <c r="O50" t="s">
-        <v>28</v>
       </c>
       <c r="P50">
         <v>1</v>
@@ -17149,10 +17152,10 @@
         <v>26</v>
       </c>
       <c r="N51" t="s">
+        <v>29</v>
+      </c>
+      <c r="O51" t="s">
         <v>27</v>
-      </c>
-      <c r="O51" t="s">
-        <v>28</v>
       </c>
       <c r="P51">
         <v>1</v>
@@ -17211,10 +17214,10 @@
         <v>26</v>
       </c>
       <c r="N52" t="s">
+        <v>29</v>
+      </c>
+      <c r="O52" t="s">
         <v>27</v>
-      </c>
-      <c r="O52" t="s">
-        <v>28</v>
       </c>
       <c r="P52">
         <v>1</v>
@@ -17273,10 +17276,10 @@
         <v>26</v>
       </c>
       <c r="N53" t="s">
+        <v>29</v>
+      </c>
+      <c r="O53" t="s">
         <v>27</v>
-      </c>
-      <c r="O53" t="s">
-        <v>28</v>
       </c>
       <c r="P53">
         <v>1</v>
@@ -17335,10 +17338,10 @@
         <v>26</v>
       </c>
       <c r="N54" t="s">
+        <v>29</v>
+      </c>
+      <c r="O54" t="s">
         <v>27</v>
-      </c>
-      <c r="O54" t="s">
-        <v>28</v>
       </c>
       <c r="P54">
         <v>1</v>
@@ -17397,10 +17400,10 @@
         <v>26</v>
       </c>
       <c r="N55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O55" t="s">
         <v>27</v>
-      </c>
-      <c r="O55" t="s">
-        <v>28</v>
       </c>
       <c r="P55">
         <v>1</v>
@@ -17459,10 +17462,10 @@
         <v>26</v>
       </c>
       <c r="N56" t="s">
+        <v>29</v>
+      </c>
+      <c r="O56" t="s">
         <v>27</v>
-      </c>
-      <c r="O56" t="s">
-        <v>28</v>
       </c>
       <c r="P56">
         <v>1</v>
@@ -17521,10 +17524,10 @@
         <v>26</v>
       </c>
       <c r="N57" t="s">
+        <v>29</v>
+      </c>
+      <c r="O57" t="s">
         <v>27</v>
-      </c>
-      <c r="O57" t="s">
-        <v>28</v>
       </c>
       <c r="P57">
         <v>1</v>
@@ -17583,10 +17586,10 @@
         <v>26</v>
       </c>
       <c r="N58" t="s">
+        <v>29</v>
+      </c>
+      <c r="O58" t="s">
         <v>27</v>
-      </c>
-      <c r="O58" t="s">
-        <v>28</v>
       </c>
       <c r="P58">
         <v>1</v>
@@ -17645,10 +17648,10 @@
         <v>26</v>
       </c>
       <c r="N59" t="s">
+        <v>29</v>
+      </c>
+      <c r="O59" t="s">
         <v>27</v>
-      </c>
-      <c r="O59" t="s">
-        <v>28</v>
       </c>
       <c r="P59">
         <v>1</v>
@@ -17707,10 +17710,10 @@
         <v>26</v>
       </c>
       <c r="N60" t="s">
+        <v>29</v>
+      </c>
+      <c r="O60" t="s">
         <v>27</v>
-      </c>
-      <c r="O60" t="s">
-        <v>28</v>
       </c>
       <c r="P60">
         <v>1</v>
@@ -17769,10 +17772,10 @@
         <v>26</v>
       </c>
       <c r="N61" t="s">
+        <v>29</v>
+      </c>
+      <c r="O61" t="s">
         <v>27</v>
-      </c>
-      <c r="O61" t="s">
-        <v>28</v>
       </c>
       <c r="P61">
         <v>1</v>
@@ -17831,10 +17834,10 @@
         <v>26</v>
       </c>
       <c r="N62" t="s">
+        <v>29</v>
+      </c>
+      <c r="O62" t="s">
         <v>27</v>
-      </c>
-      <c r="O62" t="s">
-        <v>28</v>
       </c>
       <c r="P62">
         <v>1</v>
@@ -17893,10 +17896,10 @@
         <v>26</v>
       </c>
       <c r="N63" t="s">
+        <v>29</v>
+      </c>
+      <c r="O63" t="s">
         <v>27</v>
-      </c>
-      <c r="O63" t="s">
-        <v>28</v>
       </c>
       <c r="P63">
         <v>1</v>
@@ -17955,10 +17958,10 @@
         <v>26</v>
       </c>
       <c r="N64" t="s">
+        <v>29</v>
+      </c>
+      <c r="O64" t="s">
         <v>27</v>
-      </c>
-      <c r="O64" t="s">
-        <v>28</v>
       </c>
       <c r="P64">
         <v>1</v>
@@ -18017,10 +18020,10 @@
         <v>26</v>
       </c>
       <c r="N65" t="s">
+        <v>29</v>
+      </c>
+      <c r="O65" t="s">
         <v>27</v>
-      </c>
-      <c r="O65" t="s">
-        <v>28</v>
       </c>
       <c r="P65">
         <v>1</v>
@@ -18079,10 +18082,10 @@
         <v>26</v>
       </c>
       <c r="N66" t="s">
+        <v>29</v>
+      </c>
+      <c r="O66" t="s">
         <v>27</v>
-      </c>
-      <c r="O66" t="s">
-        <v>28</v>
       </c>
       <c r="P66">
         <v>1</v>
@@ -18141,10 +18144,10 @@
         <v>26</v>
       </c>
       <c r="N67" t="s">
+        <v>29</v>
+      </c>
+      <c r="O67" t="s">
         <v>27</v>
-      </c>
-      <c r="O67" t="s">
-        <v>28</v>
       </c>
       <c r="P67">
         <v>1</v>
@@ -18203,10 +18206,10 @@
         <v>26</v>
       </c>
       <c r="N68" t="s">
+        <v>29</v>
+      </c>
+      <c r="O68" t="s">
         <v>27</v>
-      </c>
-      <c r="O68" t="s">
-        <v>28</v>
       </c>
       <c r="P68">
         <v>1</v>
@@ -18265,10 +18268,10 @@
         <v>26</v>
       </c>
       <c r="N69" t="s">
+        <v>29</v>
+      </c>
+      <c r="O69" t="s">
         <v>27</v>
-      </c>
-      <c r="O69" t="s">
-        <v>28</v>
       </c>
       <c r="P69">
         <v>1</v>
@@ -18327,10 +18330,10 @@
         <v>26</v>
       </c>
       <c r="N70" t="s">
+        <v>29</v>
+      </c>
+      <c r="O70" t="s">
         <v>27</v>
-      </c>
-      <c r="O70" t="s">
-        <v>28</v>
       </c>
       <c r="P70">
         <v>1</v>
@@ -18389,10 +18392,10 @@
         <v>26</v>
       </c>
       <c r="N71" t="s">
+        <v>29</v>
+      </c>
+      <c r="O71" t="s">
         <v>27</v>
-      </c>
-      <c r="O71" t="s">
-        <v>28</v>
       </c>
       <c r="P71">
         <v>1</v>
@@ -18451,10 +18454,10 @@
         <v>26</v>
       </c>
       <c r="N72" t="s">
+        <v>29</v>
+      </c>
+      <c r="O72" t="s">
         <v>27</v>
-      </c>
-      <c r="O72" t="s">
-        <v>28</v>
       </c>
       <c r="P72">
         <v>1</v>
@@ -18513,10 +18516,10 @@
         <v>26</v>
       </c>
       <c r="N73" t="s">
+        <v>29</v>
+      </c>
+      <c r="O73" t="s">
         <v>27</v>
-      </c>
-      <c r="O73" t="s">
-        <v>28</v>
       </c>
       <c r="P73">
         <v>1</v>
@@ -18575,10 +18578,10 @@
         <v>26</v>
       </c>
       <c r="N74" t="s">
+        <v>29</v>
+      </c>
+      <c r="O74" t="s">
         <v>27</v>
-      </c>
-      <c r="O74" t="s">
-        <v>28</v>
       </c>
       <c r="P74">
         <v>1</v>
@@ -18637,10 +18640,10 @@
         <v>26</v>
       </c>
       <c r="N75" t="s">
+        <v>29</v>
+      </c>
+      <c r="O75" t="s">
         <v>27</v>
-      </c>
-      <c r="O75" t="s">
-        <v>28</v>
       </c>
       <c r="P75">
         <v>1</v>
@@ -18699,10 +18702,10 @@
         <v>26</v>
       </c>
       <c r="N76" t="s">
+        <v>29</v>
+      </c>
+      <c r="O76" t="s">
         <v>27</v>
-      </c>
-      <c r="O76" t="s">
-        <v>28</v>
       </c>
       <c r="P76">
         <v>1</v>
@@ -18761,10 +18764,10 @@
         <v>26</v>
       </c>
       <c r="N77" t="s">
+        <v>29</v>
+      </c>
+      <c r="O77" t="s">
         <v>27</v>
-      </c>
-      <c r="O77" t="s">
-        <v>28</v>
       </c>
       <c r="P77">
         <v>1</v>
@@ -18823,10 +18826,10 @@
         <v>26</v>
       </c>
       <c r="N78" t="s">
+        <v>29</v>
+      </c>
+      <c r="O78" t="s">
         <v>27</v>
-      </c>
-      <c r="O78" t="s">
-        <v>28</v>
       </c>
       <c r="P78">
         <v>1</v>
@@ -18885,10 +18888,10 @@
         <v>26</v>
       </c>
       <c r="N79" t="s">
+        <v>29</v>
+      </c>
+      <c r="O79" t="s">
         <v>27</v>
-      </c>
-      <c r="O79" t="s">
-        <v>28</v>
       </c>
       <c r="P79">
         <v>1</v>
@@ -18947,10 +18950,10 @@
         <v>26</v>
       </c>
       <c r="N80" t="s">
+        <v>29</v>
+      </c>
+      <c r="O80" t="s">
         <v>27</v>
-      </c>
-      <c r="O80" t="s">
-        <v>28</v>
       </c>
       <c r="P80">
         <v>1</v>
@@ -19009,10 +19012,10 @@
         <v>26</v>
       </c>
       <c r="N81" t="s">
+        <v>29</v>
+      </c>
+      <c r="O81" t="s">
         <v>27</v>
-      </c>
-      <c r="O81" t="s">
-        <v>28</v>
       </c>
       <c r="P81">
         <v>1</v>
@@ -19071,10 +19074,10 @@
         <v>26</v>
       </c>
       <c r="N82" t="s">
+        <v>29</v>
+      </c>
+      <c r="O82" t="s">
         <v>27</v>
-      </c>
-      <c r="O82" t="s">
-        <v>28</v>
       </c>
       <c r="P82">
         <v>1</v>
@@ -19133,10 +19136,10 @@
         <v>26</v>
       </c>
       <c r="N83" t="s">
+        <v>29</v>
+      </c>
+      <c r="O83" t="s">
         <v>27</v>
-      </c>
-      <c r="O83" t="s">
-        <v>28</v>
       </c>
       <c r="P83">
         <v>1</v>
@@ -19195,10 +19198,10 @@
         <v>26</v>
       </c>
       <c r="N84" t="s">
+        <v>29</v>
+      </c>
+      <c r="O84" t="s">
         <v>27</v>
-      </c>
-      <c r="O84" t="s">
-        <v>28</v>
       </c>
       <c r="P84">
         <v>1</v>
@@ -19257,10 +19260,10 @@
         <v>26</v>
       </c>
       <c r="N85" t="s">
+        <v>29</v>
+      </c>
+      <c r="O85" t="s">
         <v>27</v>
-      </c>
-      <c r="O85" t="s">
-        <v>28</v>
       </c>
       <c r="P85">
         <v>1</v>
@@ -19319,10 +19322,10 @@
         <v>26</v>
       </c>
       <c r="N86" t="s">
+        <v>29</v>
+      </c>
+      <c r="O86" t="s">
         <v>27</v>
-      </c>
-      <c r="O86" t="s">
-        <v>28</v>
       </c>
       <c r="P86">
         <v>1</v>
@@ -19381,10 +19384,10 @@
         <v>26</v>
       </c>
       <c r="N87" t="s">
+        <v>29</v>
+      </c>
+      <c r="O87" t="s">
         <v>27</v>
-      </c>
-      <c r="O87" t="s">
-        <v>28</v>
       </c>
       <c r="P87">
         <v>1</v>
@@ -19443,10 +19446,10 @@
         <v>26</v>
       </c>
       <c r="N88" t="s">
+        <v>29</v>
+      </c>
+      <c r="O88" t="s">
         <v>27</v>
-      </c>
-      <c r="O88" t="s">
-        <v>28</v>
       </c>
       <c r="P88">
         <v>1</v>
@@ -19505,10 +19508,10 @@
         <v>26</v>
       </c>
       <c r="N89" t="s">
+        <v>29</v>
+      </c>
+      <c r="O89" t="s">
         <v>27</v>
-      </c>
-      <c r="O89" t="s">
-        <v>28</v>
       </c>
       <c r="P89">
         <v>1</v>
@@ -19567,10 +19570,10 @@
         <v>26</v>
       </c>
       <c r="N90" t="s">
+        <v>29</v>
+      </c>
+      <c r="O90" t="s">
         <v>27</v>
-      </c>
-      <c r="O90" t="s">
-        <v>28</v>
       </c>
       <c r="P90">
         <v>1</v>
@@ -19629,10 +19632,10 @@
         <v>26</v>
       </c>
       <c r="N91" t="s">
+        <v>29</v>
+      </c>
+      <c r="O91" t="s">
         <v>27</v>
-      </c>
-      <c r="O91" t="s">
-        <v>28</v>
       </c>
       <c r="P91">
         <v>1</v>
@@ -19691,10 +19694,10 @@
         <v>26</v>
       </c>
       <c r="N92" t="s">
+        <v>29</v>
+      </c>
+      <c r="O92" t="s">
         <v>27</v>
-      </c>
-      <c r="O92" t="s">
-        <v>28</v>
       </c>
       <c r="P92">
         <v>1</v>
@@ -19753,10 +19756,10 @@
         <v>26</v>
       </c>
       <c r="N93" t="s">
+        <v>29</v>
+      </c>
+      <c r="O93" t="s">
         <v>27</v>
-      </c>
-      <c r="O93" t="s">
-        <v>28</v>
       </c>
       <c r="P93">
         <v>1</v>
@@ -19815,10 +19818,10 @@
         <v>26</v>
       </c>
       <c r="N94" t="s">
+        <v>29</v>
+      </c>
+      <c r="O94" t="s">
         <v>27</v>
-      </c>
-      <c r="O94" t="s">
-        <v>28</v>
       </c>
       <c r="P94">
         <v>1</v>
@@ -19877,10 +19880,10 @@
         <v>26</v>
       </c>
       <c r="N95" t="s">
+        <v>29</v>
+      </c>
+      <c r="O95" t="s">
         <v>27</v>
-      </c>
-      <c r="O95" t="s">
-        <v>28</v>
       </c>
       <c r="P95">
         <v>1</v>
@@ -19939,10 +19942,10 @@
         <v>26</v>
       </c>
       <c r="N96" t="s">
+        <v>29</v>
+      </c>
+      <c r="O96" t="s">
         <v>27</v>
-      </c>
-      <c r="O96" t="s">
-        <v>28</v>
       </c>
       <c r="P96">
         <v>1</v>
@@ -20001,10 +20004,10 @@
         <v>26</v>
       </c>
       <c r="N97" t="s">
+        <v>29</v>
+      </c>
+      <c r="O97" t="s">
         <v>27</v>
-      </c>
-      <c r="O97" t="s">
-        <v>28</v>
       </c>
       <c r="P97">
         <v>1</v>
@@ -20063,10 +20066,10 @@
         <v>26</v>
       </c>
       <c r="N98" t="s">
+        <v>29</v>
+      </c>
+      <c r="O98" t="s">
         <v>27</v>
-      </c>
-      <c r="O98" t="s">
-        <v>28</v>
       </c>
       <c r="P98">
         <v>1</v>
@@ -20125,10 +20128,10 @@
         <v>26</v>
       </c>
       <c r="N99" t="s">
+        <v>29</v>
+      </c>
+      <c r="O99" t="s">
         <v>27</v>
-      </c>
-      <c r="O99" t="s">
-        <v>28</v>
       </c>
       <c r="P99">
         <v>1</v>
@@ -20187,10 +20190,10 @@
         <v>26</v>
       </c>
       <c r="N100" t="s">
+        <v>29</v>
+      </c>
+      <c r="O100" t="s">
         <v>27</v>
-      </c>
-      <c r="O100" t="s">
-        <v>28</v>
       </c>
       <c r="P100">
         <v>1</v>
@@ -20249,10 +20252,10 @@
         <v>26</v>
       </c>
       <c r="N101" t="s">
+        <v>29</v>
+      </c>
+      <c r="O101" t="s">
         <v>27</v>
-      </c>
-      <c r="O101" t="s">
-        <v>28</v>
       </c>
       <c r="P101">
         <v>1</v>
@@ -20311,10 +20314,10 @@
         <v>26</v>
       </c>
       <c r="N102" t="s">
+        <v>29</v>
+      </c>
+      <c r="O102" t="s">
         <v>27</v>
-      </c>
-      <c r="O102" t="s">
-        <v>28</v>
       </c>
       <c r="P102">
         <v>1</v>
@@ -20373,10 +20376,10 @@
         <v>26</v>
       </c>
       <c r="N103" t="s">
+        <v>29</v>
+      </c>
+      <c r="O103" t="s">
         <v>27</v>
-      </c>
-      <c r="O103" t="s">
-        <v>28</v>
       </c>
       <c r="P103">
         <v>1</v>
@@ -20435,10 +20438,10 @@
         <v>26</v>
       </c>
       <c r="N104" t="s">
+        <v>29</v>
+      </c>
+      <c r="O104" t="s">
         <v>27</v>
-      </c>
-      <c r="O104" t="s">
-        <v>28</v>
       </c>
       <c r="P104">
         <v>1</v>
@@ -20497,10 +20500,10 @@
         <v>26</v>
       </c>
       <c r="N105" t="s">
+        <v>29</v>
+      </c>
+      <c r="O105" t="s">
         <v>27</v>
-      </c>
-      <c r="O105" t="s">
-        <v>28</v>
       </c>
       <c r="P105">
         <v>1</v>
@@ -20559,10 +20562,10 @@
         <v>26</v>
       </c>
       <c r="N106" t="s">
+        <v>29</v>
+      </c>
+      <c r="O106" t="s">
         <v>27</v>
-      </c>
-      <c r="O106" t="s">
-        <v>28</v>
       </c>
       <c r="P106">
         <v>1</v>
@@ -20621,10 +20624,10 @@
         <v>26</v>
       </c>
       <c r="N107" t="s">
+        <v>29</v>
+      </c>
+      <c r="O107" t="s">
         <v>27</v>
-      </c>
-      <c r="O107" t="s">
-        <v>28</v>
       </c>
       <c r="P107">
         <v>1</v>
@@ -20683,10 +20686,10 @@
         <v>26</v>
       </c>
       <c r="N108" t="s">
+        <v>29</v>
+      </c>
+      <c r="O108" t="s">
         <v>27</v>
-      </c>
-      <c r="O108" t="s">
-        <v>28</v>
       </c>
       <c r="P108">
         <v>1</v>
@@ -20745,10 +20748,10 @@
         <v>26</v>
       </c>
       <c r="N109" t="s">
+        <v>29</v>
+      </c>
+      <c r="O109" t="s">
         <v>27</v>
-      </c>
-      <c r="O109" t="s">
-        <v>28</v>
       </c>
       <c r="P109">
         <v>1</v>
@@ -20807,10 +20810,10 @@
         <v>26</v>
       </c>
       <c r="N110" t="s">
+        <v>29</v>
+      </c>
+      <c r="O110" t="s">
         <v>27</v>
-      </c>
-      <c r="O110" t="s">
-        <v>28</v>
       </c>
       <c r="P110">
         <v>1</v>
@@ -20869,10 +20872,10 @@
         <v>26</v>
       </c>
       <c r="N111" t="s">
+        <v>29</v>
+      </c>
+      <c r="O111" t="s">
         <v>27</v>
-      </c>
-      <c r="O111" t="s">
-        <v>28</v>
       </c>
       <c r="P111">
         <v>1</v>
@@ -20931,10 +20934,10 @@
         <v>26</v>
       </c>
       <c r="N112" t="s">
+        <v>29</v>
+      </c>
+      <c r="O112" t="s">
         <v>27</v>
-      </c>
-      <c r="O112" t="s">
-        <v>28</v>
       </c>
       <c r="P112">
         <v>1</v>
@@ -20993,10 +20996,10 @@
         <v>26</v>
       </c>
       <c r="N113" t="s">
+        <v>29</v>
+      </c>
+      <c r="O113" t="s">
         <v>27</v>
-      </c>
-      <c r="O113" t="s">
-        <v>28</v>
       </c>
       <c r="P113">
         <v>1</v>
@@ -21055,10 +21058,10 @@
         <v>26</v>
       </c>
       <c r="N114" t="s">
+        <v>29</v>
+      </c>
+      <c r="O114" t="s">
         <v>27</v>
-      </c>
-      <c r="O114" t="s">
-        <v>28</v>
       </c>
       <c r="P114">
         <v>1</v>
@@ -21117,10 +21120,10 @@
         <v>26</v>
       </c>
       <c r="N115" t="s">
+        <v>29</v>
+      </c>
+      <c r="O115" t="s">
         <v>27</v>
-      </c>
-      <c r="O115" t="s">
-        <v>28</v>
       </c>
       <c r="P115">
         <v>1</v>
@@ -21179,10 +21182,10 @@
         <v>26</v>
       </c>
       <c r="N116" t="s">
+        <v>29</v>
+      </c>
+      <c r="O116" t="s">
         <v>27</v>
-      </c>
-      <c r="O116" t="s">
-        <v>28</v>
       </c>
       <c r="P116">
         <v>1</v>
@@ -21241,10 +21244,10 @@
         <v>26</v>
       </c>
       <c r="N117" t="s">
+        <v>29</v>
+      </c>
+      <c r="O117" t="s">
         <v>27</v>
-      </c>
-      <c r="O117" t="s">
-        <v>28</v>
       </c>
       <c r="P117">
         <v>1</v>
@@ -21303,10 +21306,10 @@
         <v>26</v>
       </c>
       <c r="N118" t="s">
+        <v>29</v>
+      </c>
+      <c r="O118" t="s">
         <v>27</v>
-      </c>
-      <c r="O118" t="s">
-        <v>28</v>
       </c>
       <c r="P118">
         <v>1</v>
@@ -21365,10 +21368,10 @@
         <v>26</v>
       </c>
       <c r="N119" t="s">
+        <v>29</v>
+      </c>
+      <c r="O119" t="s">
         <v>27</v>
-      </c>
-      <c r="O119" t="s">
-        <v>28</v>
       </c>
       <c r="P119">
         <v>1</v>
@@ -21427,10 +21430,10 @@
         <v>26</v>
       </c>
       <c r="N120" t="s">
+        <v>29</v>
+      </c>
+      <c r="O120" t="s">
         <v>27</v>
-      </c>
-      <c r="O120" t="s">
-        <v>28</v>
       </c>
       <c r="P120">
         <v>1</v>
@@ -21489,10 +21492,10 @@
         <v>26</v>
       </c>
       <c r="N121" t="s">
+        <v>29</v>
+      </c>
+      <c r="O121" t="s">
         <v>27</v>
-      </c>
-      <c r="O121" t="s">
-        <v>28</v>
       </c>
       <c r="P121">
         <v>1</v>
@@ -21551,10 +21554,10 @@
         <v>26</v>
       </c>
       <c r="N122" t="s">
+        <v>29</v>
+      </c>
+      <c r="O122" t="s">
         <v>27</v>
-      </c>
-      <c r="O122" t="s">
-        <v>28</v>
       </c>
       <c r="P122">
         <v>1</v>
@@ -21613,10 +21616,10 @@
         <v>26</v>
       </c>
       <c r="N123" t="s">
+        <v>29</v>
+      </c>
+      <c r="O123" t="s">
         <v>27</v>
-      </c>
-      <c r="O123" t="s">
-        <v>28</v>
       </c>
       <c r="P123">
         <v>1</v>
@@ -21675,10 +21678,10 @@
         <v>26</v>
       </c>
       <c r="N124" t="s">
+        <v>29</v>
+      </c>
+      <c r="O124" t="s">
         <v>27</v>
-      </c>
-      <c r="O124" t="s">
-        <v>28</v>
       </c>
       <c r="P124">
         <v>1</v>
@@ -21737,10 +21740,10 @@
         <v>26</v>
       </c>
       <c r="N125" t="s">
+        <v>29</v>
+      </c>
+      <c r="O125" t="s">
         <v>27</v>
-      </c>
-      <c r="O125" t="s">
-        <v>28</v>
       </c>
       <c r="P125">
         <v>1</v>
@@ -21799,10 +21802,10 @@
         <v>26</v>
       </c>
       <c r="N126" t="s">
+        <v>29</v>
+      </c>
+      <c r="O126" t="s">
         <v>27</v>
-      </c>
-      <c r="O126" t="s">
-        <v>28</v>
       </c>
       <c r="P126">
         <v>1</v>
@@ -21861,10 +21864,10 @@
         <v>26</v>
       </c>
       <c r="N127" t="s">
+        <v>29</v>
+      </c>
+      <c r="O127" t="s">
         <v>27</v>
-      </c>
-      <c r="O127" t="s">
-        <v>28</v>
       </c>
       <c r="P127">
         <v>1</v>
@@ -21923,10 +21926,10 @@
         <v>26</v>
       </c>
       <c r="N128" t="s">
+        <v>29</v>
+      </c>
+      <c r="O128" t="s">
         <v>27</v>
-      </c>
-      <c r="O128" t="s">
-        <v>28</v>
       </c>
       <c r="P128">
         <v>1</v>
@@ -21985,10 +21988,10 @@
         <v>26</v>
       </c>
       <c r="N129" t="s">
+        <v>29</v>
+      </c>
+      <c r="O129" t="s">
         <v>27</v>
-      </c>
-      <c r="O129" t="s">
-        <v>28</v>
       </c>
       <c r="P129">
         <v>1</v>
@@ -22047,10 +22050,10 @@
         <v>26</v>
       </c>
       <c r="N130" t="s">
+        <v>29</v>
+      </c>
+      <c r="O130" t="s">
         <v>27</v>
-      </c>
-      <c r="O130" t="s">
-        <v>28</v>
       </c>
       <c r="P130">
         <v>1</v>
@@ -22109,10 +22112,10 @@
         <v>26</v>
       </c>
       <c r="N131" t="s">
+        <v>29</v>
+      </c>
+      <c r="O131" t="s">
         <v>27</v>
-      </c>
-      <c r="O131" t="s">
-        <v>28</v>
       </c>
       <c r="P131">
         <v>1</v>
@@ -22171,10 +22174,10 @@
         <v>26</v>
       </c>
       <c r="N132" t="s">
+        <v>29</v>
+      </c>
+      <c r="O132" t="s">
         <v>27</v>
-      </c>
-      <c r="O132" t="s">
-        <v>28</v>
       </c>
       <c r="P132">
         <v>1</v>
@@ -22233,10 +22236,10 @@
         <v>26</v>
       </c>
       <c r="N133" t="s">
+        <v>29</v>
+      </c>
+      <c r="O133" t="s">
         <v>27</v>
-      </c>
-      <c r="O133" t="s">
-        <v>28</v>
       </c>
       <c r="P133">
         <v>1</v>
@@ -22295,10 +22298,10 @@
         <v>26</v>
       </c>
       <c r="N134" t="s">
+        <v>29</v>
+      </c>
+      <c r="O134" t="s">
         <v>27</v>
-      </c>
-      <c r="O134" t="s">
-        <v>28</v>
       </c>
       <c r="P134">
         <v>1</v>
@@ -22357,10 +22360,10 @@
         <v>26</v>
       </c>
       <c r="N135" t="s">
+        <v>29</v>
+      </c>
+      <c r="O135" t="s">
         <v>27</v>
-      </c>
-      <c r="O135" t="s">
-        <v>28</v>
       </c>
       <c r="P135">
         <v>1</v>
@@ -22419,10 +22422,10 @@
         <v>26</v>
       </c>
       <c r="N136" t="s">
+        <v>29</v>
+      </c>
+      <c r="O136" t="s">
         <v>27</v>
-      </c>
-      <c r="O136" t="s">
-        <v>28</v>
       </c>
       <c r="P136">
         <v>1</v>
@@ -22481,10 +22484,10 @@
         <v>26</v>
       </c>
       <c r="N137" t="s">
+        <v>29</v>
+      </c>
+      <c r="O137" t="s">
         <v>27</v>
-      </c>
-      <c r="O137" t="s">
-        <v>28</v>
       </c>
       <c r="P137">
         <v>1</v>
@@ -22543,10 +22546,10 @@
         <v>26</v>
       </c>
       <c r="N138" t="s">
+        <v>29</v>
+      </c>
+      <c r="O138" t="s">
         <v>27</v>
-      </c>
-      <c r="O138" t="s">
-        <v>28</v>
       </c>
       <c r="P138">
         <v>1</v>
@@ -22605,10 +22608,10 @@
         <v>26</v>
       </c>
       <c r="N139" t="s">
+        <v>29</v>
+      </c>
+      <c r="O139" t="s">
         <v>27</v>
-      </c>
-      <c r="O139" t="s">
-        <v>28</v>
       </c>
       <c r="P139">
         <v>1</v>
@@ -22667,10 +22670,10 @@
         <v>26</v>
       </c>
       <c r="N140" t="s">
+        <v>29</v>
+      </c>
+      <c r="O140" t="s">
         <v>27</v>
-      </c>
-      <c r="O140" t="s">
-        <v>28</v>
       </c>
       <c r="P140">
         <v>1</v>
@@ -22729,10 +22732,10 @@
         <v>26</v>
       </c>
       <c r="N141" t="s">
+        <v>29</v>
+      </c>
+      <c r="O141" t="s">
         <v>27</v>
-      </c>
-      <c r="O141" t="s">
-        <v>28</v>
       </c>
       <c r="P141">
         <v>1</v>
@@ -22791,10 +22794,10 @@
         <v>26</v>
       </c>
       <c r="N142" t="s">
+        <v>29</v>
+      </c>
+      <c r="O142" t="s">
         <v>27</v>
-      </c>
-      <c r="O142" t="s">
-        <v>28</v>
       </c>
       <c r="P142">
         <v>1</v>
@@ -22853,10 +22856,10 @@
         <v>26</v>
       </c>
       <c r="N143" t="s">
+        <v>29</v>
+      </c>
+      <c r="O143" t="s">
         <v>27</v>
-      </c>
-      <c r="O143" t="s">
-        <v>28</v>
       </c>
       <c r="P143">
         <v>1</v>
@@ -22915,10 +22918,10 @@
         <v>26</v>
       </c>
       <c r="N144" t="s">
+        <v>29</v>
+      </c>
+      <c r="O144" t="s">
         <v>27</v>
-      </c>
-      <c r="O144" t="s">
-        <v>28</v>
       </c>
       <c r="P144">
         <v>1</v>
@@ -22977,10 +22980,10 @@
         <v>26</v>
       </c>
       <c r="N145" t="s">
+        <v>29</v>
+      </c>
+      <c r="O145" t="s">
         <v>27</v>
-      </c>
-      <c r="O145" t="s">
-        <v>28</v>
       </c>
       <c r="P145">
         <v>1</v>
@@ -23039,10 +23042,10 @@
         <v>26</v>
       </c>
       <c r="N146" t="s">
+        <v>29</v>
+      </c>
+      <c r="O146" t="s">
         <v>27</v>
-      </c>
-      <c r="O146" t="s">
-        <v>28</v>
       </c>
       <c r="P146">
         <v>1</v>
@@ -23101,10 +23104,10 @@
         <v>26</v>
       </c>
       <c r="N147" t="s">
+        <v>29</v>
+      </c>
+      <c r="O147" t="s">
         <v>27</v>
-      </c>
-      <c r="O147" t="s">
-        <v>28</v>
       </c>
       <c r="P147">
         <v>1</v>
@@ -23163,10 +23166,10 @@
         <v>26</v>
       </c>
       <c r="N148" t="s">
+        <v>29</v>
+      </c>
+      <c r="O148" t="s">
         <v>27</v>
-      </c>
-      <c r="O148" t="s">
-        <v>28</v>
       </c>
       <c r="P148">
         <v>1</v>
@@ -23225,10 +23228,10 @@
         <v>26</v>
       </c>
       <c r="N149" t="s">
+        <v>29</v>
+      </c>
+      <c r="O149" t="s">
         <v>27</v>
-      </c>
-      <c r="O149" t="s">
-        <v>28</v>
       </c>
       <c r="P149">
         <v>1</v>
@@ -23287,10 +23290,10 @@
         <v>26</v>
       </c>
       <c r="N150" t="s">
+        <v>29</v>
+      </c>
+      <c r="O150" t="s">
         <v>27</v>
-      </c>
-      <c r="O150" t="s">
-        <v>28</v>
       </c>
       <c r="P150">
         <v>1</v>
@@ -23349,10 +23352,10 @@
         <v>26</v>
       </c>
       <c r="N151" t="s">
+        <v>29</v>
+      </c>
+      <c r="O151" t="s">
         <v>27</v>
-      </c>
-      <c r="O151" t="s">
-        <v>28</v>
       </c>
       <c r="P151">
         <v>1</v>
@@ -23411,10 +23414,10 @@
         <v>26</v>
       </c>
       <c r="N152" t="s">
+        <v>29</v>
+      </c>
+      <c r="O152" t="s">
         <v>27</v>
-      </c>
-      <c r="O152" t="s">
-        <v>28</v>
       </c>
       <c r="P152">
         <v>1</v>
@@ -23473,10 +23476,10 @@
         <v>26</v>
       </c>
       <c r="N153" t="s">
+        <v>29</v>
+      </c>
+      <c r="O153" t="s">
         <v>27</v>
-      </c>
-      <c r="O153" t="s">
-        <v>28</v>
       </c>
       <c r="P153">
         <v>1</v>
@@ -23535,10 +23538,10 @@
         <v>26</v>
       </c>
       <c r="N154" t="s">
+        <v>29</v>
+      </c>
+      <c r="O154" t="s">
         <v>27</v>
-      </c>
-      <c r="O154" t="s">
-        <v>28</v>
       </c>
       <c r="P154">
         <v>1</v>
@@ -23597,10 +23600,10 @@
         <v>26</v>
       </c>
       <c r="N155" t="s">
+        <v>29</v>
+      </c>
+      <c r="O155" t="s">
         <v>27</v>
-      </c>
-      <c r="O155" t="s">
-        <v>28</v>
       </c>
       <c r="P155">
         <v>1</v>
@@ -23659,10 +23662,10 @@
         <v>26</v>
       </c>
       <c r="N156" t="s">
+        <v>29</v>
+      </c>
+      <c r="O156" t="s">
         <v>27</v>
-      </c>
-      <c r="O156" t="s">
-        <v>28</v>
       </c>
       <c r="P156">
         <v>1</v>
@@ -23721,10 +23724,10 @@
         <v>26</v>
       </c>
       <c r="N157" t="s">
+        <v>29</v>
+      </c>
+      <c r="O157" t="s">
         <v>27</v>
-      </c>
-      <c r="O157" t="s">
-        <v>28</v>
       </c>
       <c r="P157">
         <v>1</v>
@@ -23783,10 +23786,10 @@
         <v>26</v>
       </c>
       <c r="N158" t="s">
+        <v>29</v>
+      </c>
+      <c r="O158" t="s">
         <v>27</v>
-      </c>
-      <c r="O158" t="s">
-        <v>28</v>
       </c>
       <c r="P158">
         <v>1</v>
@@ -23845,10 +23848,10 @@
         <v>26</v>
       </c>
       <c r="N159" t="s">
+        <v>29</v>
+      </c>
+      <c r="O159" t="s">
         <v>27</v>
-      </c>
-      <c r="O159" t="s">
-        <v>28</v>
       </c>
       <c r="P159">
         <v>1</v>
@@ -23907,10 +23910,10 @@
         <v>26</v>
       </c>
       <c r="N160" t="s">
+        <v>29</v>
+      </c>
+      <c r="O160" t="s">
         <v>27</v>
-      </c>
-      <c r="O160" t="s">
-        <v>28</v>
       </c>
       <c r="P160">
         <v>1</v>
@@ -23969,10 +23972,10 @@
         <v>26</v>
       </c>
       <c r="N161" t="s">
+        <v>29</v>
+      </c>
+      <c r="O161" t="s">
         <v>27</v>
-      </c>
-      <c r="O161" t="s">
-        <v>28</v>
       </c>
       <c r="P161">
         <v>1</v>
@@ -24031,10 +24034,10 @@
         <v>26</v>
       </c>
       <c r="N162" t="s">
+        <v>29</v>
+      </c>
+      <c r="O162" t="s">
         <v>27</v>
-      </c>
-      <c r="O162" t="s">
-        <v>28</v>
       </c>
       <c r="P162">
         <v>1</v>
@@ -24093,10 +24096,10 @@
         <v>26</v>
       </c>
       <c r="N163" t="s">
+        <v>29</v>
+      </c>
+      <c r="O163" t="s">
         <v>27</v>
-      </c>
-      <c r="O163" t="s">
-        <v>28</v>
       </c>
       <c r="P163">
         <v>1</v>
@@ -24155,10 +24158,10 @@
         <v>26</v>
       </c>
       <c r="N164" t="s">
+        <v>29</v>
+      </c>
+      <c r="O164" t="s">
         <v>27</v>
-      </c>
-      <c r="O164" t="s">
-        <v>28</v>
       </c>
       <c r="P164">
         <v>1</v>
@@ -24217,10 +24220,10 @@
         <v>26</v>
       </c>
       <c r="N165" t="s">
+        <v>29</v>
+      </c>
+      <c r="O165" t="s">
         <v>27</v>
-      </c>
-      <c r="O165" t="s">
-        <v>28</v>
       </c>
       <c r="P165">
         <v>1</v>
@@ -24279,10 +24282,10 @@
         <v>26</v>
       </c>
       <c r="N166" t="s">
+        <v>29</v>
+      </c>
+      <c r="O166" t="s">
         <v>27</v>
-      </c>
-      <c r="O166" t="s">
-        <v>28</v>
       </c>
       <c r="P166">
         <v>1</v>
@@ -24341,10 +24344,10 @@
         <v>26</v>
       </c>
       <c r="N167" t="s">
+        <v>29</v>
+      </c>
+      <c r="O167" t="s">
         <v>27</v>
-      </c>
-      <c r="O167" t="s">
-        <v>28</v>
       </c>
       <c r="P167">
         <v>1</v>
@@ -24403,10 +24406,10 @@
         <v>26</v>
       </c>
       <c r="N168" t="s">
+        <v>29</v>
+      </c>
+      <c r="O168" t="s">
         <v>27</v>
-      </c>
-      <c r="O168" t="s">
-        <v>28</v>
       </c>
       <c r="P168">
         <v>1</v>
@@ -24465,10 +24468,10 @@
         <v>26</v>
       </c>
       <c r="N169" t="s">
+        <v>29</v>
+      </c>
+      <c r="O169" t="s">
         <v>27</v>
-      </c>
-      <c r="O169" t="s">
-        <v>28</v>
       </c>
       <c r="P169">
         <v>1</v>
@@ -24527,10 +24530,10 @@
         <v>26</v>
       </c>
       <c r="N170" t="s">
+        <v>29</v>
+      </c>
+      <c r="O170" t="s">
         <v>27</v>
-      </c>
-      <c r="O170" t="s">
-        <v>28</v>
       </c>
       <c r="P170">
         <v>1</v>
@@ -24589,10 +24592,10 @@
         <v>26</v>
       </c>
       <c r="N171" t="s">
+        <v>29</v>
+      </c>
+      <c r="O171" t="s">
         <v>27</v>
-      </c>
-      <c r="O171" t="s">
-        <v>28</v>
       </c>
       <c r="P171">
         <v>1</v>
@@ -24651,10 +24654,10 @@
         <v>26</v>
       </c>
       <c r="N172" t="s">
+        <v>29</v>
+      </c>
+      <c r="O172" t="s">
         <v>27</v>
-      </c>
-      <c r="O172" t="s">
-        <v>28</v>
       </c>
       <c r="P172">
         <v>1</v>
@@ -24713,10 +24716,10 @@
         <v>26</v>
       </c>
       <c r="N173" t="s">
+        <v>29</v>
+      </c>
+      <c r="O173" t="s">
         <v>27</v>
-      </c>
-      <c r="O173" t="s">
-        <v>28</v>
       </c>
       <c r="P173">
         <v>1</v>
@@ -24775,10 +24778,10 @@
         <v>26</v>
       </c>
       <c r="N174" t="s">
+        <v>29</v>
+      </c>
+      <c r="O174" t="s">
         <v>27</v>
-      </c>
-      <c r="O174" t="s">
-        <v>28</v>
       </c>
       <c r="P174">
         <v>1</v>
@@ -24837,10 +24840,10 @@
         <v>26</v>
       </c>
       <c r="N175" t="s">
+        <v>29</v>
+      </c>
+      <c r="O175" t="s">
         <v>27</v>
-      </c>
-      <c r="O175" t="s">
-        <v>28</v>
       </c>
       <c r="P175">
         <v>1</v>
@@ -24899,10 +24902,10 @@
         <v>26</v>
       </c>
       <c r="N176" t="s">
+        <v>29</v>
+      </c>
+      <c r="O176" t="s">
         <v>27</v>
-      </c>
-      <c r="O176" t="s">
-        <v>28</v>
       </c>
       <c r="P176">
         <v>1</v>
@@ -24961,10 +24964,10 @@
         <v>26</v>
       </c>
       <c r="N177" t="s">
+        <v>29</v>
+      </c>
+      <c r="O177" t="s">
         <v>27</v>
-      </c>
-      <c r="O177" t="s">
-        <v>28</v>
       </c>
       <c r="P177">
         <v>1</v>
@@ -25023,10 +25026,10 @@
         <v>26</v>
       </c>
       <c r="N178" t="s">
+        <v>29</v>
+      </c>
+      <c r="O178" t="s">
         <v>27</v>
-      </c>
-      <c r="O178" t="s">
-        <v>28</v>
       </c>
       <c r="P178">
         <v>1</v>
@@ -25085,10 +25088,10 @@
         <v>26</v>
       </c>
       <c r="N179" t="s">
+        <v>29</v>
+      </c>
+      <c r="O179" t="s">
         <v>27</v>
-      </c>
-      <c r="O179" t="s">
-        <v>28</v>
       </c>
       <c r="P179">
         <v>1</v>
@@ -25147,10 +25150,10 @@
         <v>26</v>
       </c>
       <c r="N180" t="s">
+        <v>29</v>
+      </c>
+      <c r="O180" t="s">
         <v>27</v>
-      </c>
-      <c r="O180" t="s">
-        <v>28</v>
       </c>
       <c r="P180">
         <v>1</v>
@@ -25209,10 +25212,10 @@
         <v>26</v>
       </c>
       <c r="N181" t="s">
+        <v>29</v>
+      </c>
+      <c r="O181" t="s">
         <v>27</v>
-      </c>
-      <c r="O181" t="s">
-        <v>28</v>
       </c>
       <c r="P181">
         <v>1</v>
@@ -25271,10 +25274,10 @@
         <v>26</v>
       </c>
       <c r="N182" t="s">
+        <v>29</v>
+      </c>
+      <c r="O182" t="s">
         <v>27</v>
-      </c>
-      <c r="O182" t="s">
-        <v>28</v>
       </c>
       <c r="P182">
         <v>1</v>
@@ -25333,10 +25336,10 @@
         <v>26</v>
       </c>
       <c r="N183" t="s">
+        <v>29</v>
+      </c>
+      <c r="O183" t="s">
         <v>27</v>
-      </c>
-      <c r="O183" t="s">
-        <v>28</v>
       </c>
       <c r="P183">
         <v>1</v>
@@ -25395,10 +25398,10 @@
         <v>26</v>
       </c>
       <c r="N184" t="s">
+        <v>29</v>
+      </c>
+      <c r="O184" t="s">
         <v>27</v>
-      </c>
-      <c r="O184" t="s">
-        <v>28</v>
       </c>
       <c r="P184">
         <v>1</v>
@@ -25457,10 +25460,10 @@
         <v>26</v>
       </c>
       <c r="N185" t="s">
+        <v>29</v>
+      </c>
+      <c r="O185" t="s">
         <v>27</v>
-      </c>
-      <c r="O185" t="s">
-        <v>28</v>
       </c>
       <c r="P185">
         <v>1</v>
@@ -25519,10 +25522,10 @@
         <v>26</v>
       </c>
       <c r="N186" t="s">
+        <v>29</v>
+      </c>
+      <c r="O186" t="s">
         <v>27</v>
-      </c>
-      <c r="O186" t="s">
-        <v>28</v>
       </c>
       <c r="P186">
         <v>1</v>
@@ -25581,10 +25584,10 @@
         <v>26</v>
       </c>
       <c r="N187" t="s">
+        <v>29</v>
+      </c>
+      <c r="O187" t="s">
         <v>27</v>
-      </c>
-      <c r="O187" t="s">
-        <v>28</v>
       </c>
       <c r="P187">
         <v>1</v>
@@ -25643,10 +25646,10 @@
         <v>26</v>
       </c>
       <c r="N188" t="s">
+        <v>29</v>
+      </c>
+      <c r="O188" t="s">
         <v>27</v>
-      </c>
-      <c r="O188" t="s">
-        <v>28</v>
       </c>
       <c r="P188">
         <v>1</v>
@@ -25705,10 +25708,10 @@
         <v>26</v>
       </c>
       <c r="N189" t="s">
+        <v>29</v>
+      </c>
+      <c r="O189" t="s">
         <v>27</v>
-      </c>
-      <c r="O189" t="s">
-        <v>28</v>
       </c>
       <c r="P189">
         <v>1</v>
@@ -25767,10 +25770,10 @@
         <v>26</v>
       </c>
       <c r="N190" t="s">
+        <v>29</v>
+      </c>
+      <c r="O190" t="s">
         <v>27</v>
-      </c>
-      <c r="O190" t="s">
-        <v>28</v>
       </c>
       <c r="P190">
         <v>1</v>
@@ -25829,10 +25832,10 @@
         <v>26</v>
       </c>
       <c r="N191" t="s">
+        <v>29</v>
+      </c>
+      <c r="O191" t="s">
         <v>27</v>
-      </c>
-      <c r="O191" t="s">
-        <v>28</v>
       </c>
       <c r="P191">
         <v>1</v>
@@ -25891,10 +25894,10 @@
         <v>26</v>
       </c>
       <c r="N192" t="s">
+        <v>29</v>
+      </c>
+      <c r="O192" t="s">
         <v>27</v>
-      </c>
-      <c r="O192" t="s">
-        <v>28</v>
       </c>
       <c r="P192">
         <v>1</v>
@@ -25953,10 +25956,10 @@
         <v>26</v>
       </c>
       <c r="N193" t="s">
+        <v>29</v>
+      </c>
+      <c r="O193" t="s">
         <v>27</v>
-      </c>
-      <c r="O193" t="s">
-        <v>28</v>
       </c>
       <c r="P193">
         <v>1</v>
@@ -26015,10 +26018,10 @@
         <v>26</v>
       </c>
       <c r="N194" t="s">
+        <v>29</v>
+      </c>
+      <c r="O194" t="s">
         <v>27</v>
-      </c>
-      <c r="O194" t="s">
-        <v>28</v>
       </c>
       <c r="P194">
         <v>1</v>
@@ -26077,10 +26080,10 @@
         <v>26</v>
       </c>
       <c r="N195" t="s">
+        <v>29</v>
+      </c>
+      <c r="O195" t="s">
         <v>27</v>
-      </c>
-      <c r="O195" t="s">
-        <v>28</v>
       </c>
       <c r="P195">
         <v>1</v>
@@ -26139,10 +26142,10 @@
         <v>26</v>
       </c>
       <c r="N196" t="s">
+        <v>29</v>
+      </c>
+      <c r="O196" t="s">
         <v>27</v>
-      </c>
-      <c r="O196" t="s">
-        <v>28</v>
       </c>
       <c r="P196">
         <v>1</v>
@@ -26201,10 +26204,10 @@
         <v>26</v>
       </c>
       <c r="N197" t="s">
+        <v>29</v>
+      </c>
+      <c r="O197" t="s">
         <v>27</v>
-      </c>
-      <c r="O197" t="s">
-        <v>28</v>
       </c>
       <c r="P197">
         <v>1</v>
@@ -26263,10 +26266,10 @@
         <v>26</v>
       </c>
       <c r="N198" t="s">
+        <v>29</v>
+      </c>
+      <c r="O198" t="s">
         <v>27</v>
-      </c>
-      <c r="O198" t="s">
-        <v>28</v>
       </c>
       <c r="P198">
         <v>1</v>
@@ -26325,10 +26328,10 @@
         <v>26</v>
       </c>
       <c r="N199" t="s">
+        <v>29</v>
+      </c>
+      <c r="O199" t="s">
         <v>27</v>
-      </c>
-      <c r="O199" t="s">
-        <v>28</v>
       </c>
       <c r="P199">
         <v>1</v>
@@ -26387,10 +26390,10 @@
         <v>26</v>
       </c>
       <c r="N200" t="s">
+        <v>29</v>
+      </c>
+      <c r="O200" t="s">
         <v>27</v>
-      </c>
-      <c r="O200" t="s">
-        <v>28</v>
       </c>
       <c r="P200">
         <v>1</v>
@@ -26449,10 +26452,10 @@
         <v>26</v>
       </c>
       <c r="N201" t="s">
+        <v>29</v>
+      </c>
+      <c r="O201" t="s">
         <v>27</v>
-      </c>
-      <c r="O201" t="s">
-        <v>28</v>
       </c>
       <c r="P201">
         <v>1</v>
@@ -26511,10 +26514,10 @@
         <v>26</v>
       </c>
       <c r="N202" t="s">
+        <v>29</v>
+      </c>
+      <c r="O202" t="s">
         <v>27</v>
-      </c>
-      <c r="O202" t="s">
-        <v>28</v>
       </c>
       <c r="P202">
         <v>1</v>
@@ -26573,10 +26576,10 @@
         <v>26</v>
       </c>
       <c r="N203" t="s">
+        <v>29</v>
+      </c>
+      <c r="O203" t="s">
         <v>27</v>
-      </c>
-      <c r="O203" t="s">
-        <v>28</v>
       </c>
       <c r="P203">
         <v>1</v>
@@ -26635,10 +26638,10 @@
         <v>26</v>
       </c>
       <c r="N204" t="s">
+        <v>29</v>
+      </c>
+      <c r="O204" t="s">
         <v>27</v>
-      </c>
-      <c r="O204" t="s">
-        <v>28</v>
       </c>
       <c r="P204">
         <v>1</v>
@@ -26697,10 +26700,10 @@
         <v>26</v>
       </c>
       <c r="N205" t="s">
+        <v>29</v>
+      </c>
+      <c r="O205" t="s">
         <v>27</v>
-      </c>
-      <c r="O205" t="s">
-        <v>28</v>
       </c>
       <c r="P205">
         <v>1</v>
@@ -26759,10 +26762,10 @@
         <v>26</v>
       </c>
       <c r="N206" t="s">
+        <v>29</v>
+      </c>
+      <c r="O206" t="s">
         <v>27</v>
-      </c>
-      <c r="O206" t="s">
-        <v>28</v>
       </c>
       <c r="P206">
         <v>1</v>
@@ -26821,10 +26824,10 @@
         <v>26</v>
       </c>
       <c r="N207" t="s">
+        <v>29</v>
+      </c>
+      <c r="O207" t="s">
         <v>27</v>
-      </c>
-      <c r="O207" t="s">
-        <v>28</v>
       </c>
       <c r="P207">
         <v>1</v>
@@ -26883,10 +26886,10 @@
         <v>26</v>
       </c>
       <c r="N208" t="s">
+        <v>29</v>
+      </c>
+      <c r="O208" t="s">
         <v>27</v>
-      </c>
-      <c r="O208" t="s">
-        <v>28</v>
       </c>
       <c r="P208">
         <v>1</v>
@@ -26945,10 +26948,10 @@
         <v>26</v>
       </c>
       <c r="N209" t="s">
+        <v>29</v>
+      </c>
+      <c r="O209" t="s">
         <v>27</v>
-      </c>
-      <c r="O209" t="s">
-        <v>28</v>
       </c>
       <c r="P209">
         <v>1</v>
@@ -27007,10 +27010,10 @@
         <v>26</v>
       </c>
       <c r="N210" t="s">
+        <v>29</v>
+      </c>
+      <c r="O210" t="s">
         <v>27</v>
-      </c>
-      <c r="O210" t="s">
-        <v>28</v>
       </c>
       <c r="P210">
         <v>1</v>
@@ -27069,10 +27072,10 @@
         <v>26</v>
       </c>
       <c r="N211" t="s">
+        <v>29</v>
+      </c>
+      <c r="O211" t="s">
         <v>27</v>
-      </c>
-      <c r="O211" t="s">
-        <v>28</v>
       </c>
       <c r="P211">
         <v>1</v>
@@ -27131,10 +27134,10 @@
         <v>26</v>
       </c>
       <c r="N212" t="s">
+        <v>29</v>
+      </c>
+      <c r="O212" t="s">
         <v>27</v>
-      </c>
-      <c r="O212" t="s">
-        <v>28</v>
       </c>
       <c r="P212">
         <v>1</v>
@@ -27193,10 +27196,10 @@
         <v>26</v>
       </c>
       <c r="N213" t="s">
+        <v>29</v>
+      </c>
+      <c r="O213" t="s">
         <v>27</v>
-      </c>
-      <c r="O213" t="s">
-        <v>28</v>
       </c>
       <c r="P213">
         <v>1</v>
@@ -27255,10 +27258,10 @@
         <v>26</v>
       </c>
       <c r="N214" t="s">
+        <v>29</v>
+      </c>
+      <c r="O214" t="s">
         <v>27</v>
-      </c>
-      <c r="O214" t="s">
-        <v>28</v>
       </c>
       <c r="P214">
         <v>1</v>
@@ -27317,10 +27320,10 @@
         <v>26</v>
       </c>
       <c r="N215" t="s">
+        <v>29</v>
+      </c>
+      <c r="O215" t="s">
         <v>27</v>
-      </c>
-      <c r="O215" t="s">
-        <v>28</v>
       </c>
       <c r="P215">
         <v>1</v>
@@ -27379,10 +27382,10 @@
         <v>26</v>
       </c>
       <c r="N216" t="s">
+        <v>29</v>
+      </c>
+      <c r="O216" t="s">
         <v>27</v>
-      </c>
-      <c r="O216" t="s">
-        <v>28</v>
       </c>
       <c r="P216">
         <v>1</v>
@@ -27441,10 +27444,10 @@
         <v>26</v>
       </c>
       <c r="N217" t="s">
+        <v>29</v>
+      </c>
+      <c r="O217" t="s">
         <v>27</v>
-      </c>
-      <c r="O217" t="s">
-        <v>28</v>
       </c>
       <c r="P217">
         <v>1</v>
@@ -27503,10 +27506,10 @@
         <v>26</v>
       </c>
       <c r="N218" t="s">
+        <v>29</v>
+      </c>
+      <c r="O218" t="s">
         <v>27</v>
-      </c>
-      <c r="O218" t="s">
-        <v>28</v>
       </c>
       <c r="P218">
         <v>1</v>
@@ -27565,10 +27568,10 @@
         <v>26</v>
       </c>
       <c r="N219" t="s">
+        <v>29</v>
+      </c>
+      <c r="O219" t="s">
         <v>27</v>
-      </c>
-      <c r="O219" t="s">
-        <v>28</v>
       </c>
       <c r="P219">
         <v>1</v>
@@ -27627,10 +27630,10 @@
         <v>26</v>
       </c>
       <c r="N220" t="s">
+        <v>29</v>
+      </c>
+      <c r="O220" t="s">
         <v>27</v>
-      </c>
-      <c r="O220" t="s">
-        <v>28</v>
       </c>
       <c r="P220">
         <v>1</v>
@@ -27689,10 +27692,10 @@
         <v>26</v>
       </c>
       <c r="N221" t="s">
+        <v>29</v>
+      </c>
+      <c r="O221" t="s">
         <v>27</v>
-      </c>
-      <c r="O221" t="s">
-        <v>28</v>
       </c>
       <c r="P221">
         <v>1</v>
@@ -27751,10 +27754,10 @@
         <v>26</v>
       </c>
       <c r="N222" t="s">
+        <v>29</v>
+      </c>
+      <c r="O222" t="s">
         <v>27</v>
-      </c>
-      <c r="O222" t="s">
-        <v>28</v>
       </c>
       <c r="P222">
         <v>1</v>
@@ -27813,10 +27816,10 @@
         <v>26</v>
       </c>
       <c r="N223" t="s">
+        <v>29</v>
+      </c>
+      <c r="O223" t="s">
         <v>27</v>
-      </c>
-      <c r="O223" t="s">
-        <v>28</v>
       </c>
       <c r="P223">
         <v>1</v>
@@ -27875,10 +27878,10 @@
         <v>26</v>
       </c>
       <c r="N224" t="s">
+        <v>29</v>
+      </c>
+      <c r="O224" t="s">
         <v>27</v>
-      </c>
-      <c r="O224" t="s">
-        <v>28</v>
       </c>
       <c r="P224">
         <v>1</v>
@@ -27937,10 +27940,10 @@
         <v>26</v>
       </c>
       <c r="N225" t="s">
+        <v>29</v>
+      </c>
+      <c r="O225" t="s">
         <v>27</v>
-      </c>
-      <c r="O225" t="s">
-        <v>28</v>
       </c>
       <c r="P225">
         <v>1</v>
@@ -27999,10 +28002,10 @@
         <v>26</v>
       </c>
       <c r="N226" t="s">
+        <v>29</v>
+      </c>
+      <c r="O226" t="s">
         <v>27</v>
-      </c>
-      <c r="O226" t="s">
-        <v>28</v>
       </c>
       <c r="P226">
         <v>1</v>
@@ -28061,10 +28064,10 @@
         <v>26</v>
       </c>
       <c r="N227" t="s">
+        <v>29</v>
+      </c>
+      <c r="O227" t="s">
         <v>27</v>
-      </c>
-      <c r="O227" t="s">
-        <v>28</v>
       </c>
       <c r="P227">
         <v>1</v>
@@ -28123,10 +28126,10 @@
         <v>26</v>
       </c>
       <c r="N228" t="s">
+        <v>29</v>
+      </c>
+      <c r="O228" t="s">
         <v>27</v>
-      </c>
-      <c r="O228" t="s">
-        <v>28</v>
       </c>
       <c r="P228">
         <v>1</v>
@@ -28185,10 +28188,10 @@
         <v>26</v>
       </c>
       <c r="N229" t="s">
+        <v>29</v>
+      </c>
+      <c r="O229" t="s">
         <v>27</v>
-      </c>
-      <c r="O229" t="s">
-        <v>28</v>
       </c>
       <c r="P229">
         <v>1</v>
@@ -28247,10 +28250,10 @@
         <v>26</v>
       </c>
       <c r="N230" t="s">
+        <v>29</v>
+      </c>
+      <c r="O230" t="s">
         <v>27</v>
-      </c>
-      <c r="O230" t="s">
-        <v>28</v>
       </c>
       <c r="P230">
         <v>1</v>
@@ -28309,10 +28312,10 @@
         <v>26</v>
       </c>
       <c r="N231" t="s">
+        <v>29</v>
+      </c>
+      <c r="O231" t="s">
         <v>27</v>
-      </c>
-      <c r="O231" t="s">
-        <v>28</v>
       </c>
       <c r="P231">
         <v>1</v>
@@ -28371,10 +28374,10 @@
         <v>26</v>
       </c>
       <c r="N232" t="s">
+        <v>29</v>
+      </c>
+      <c r="O232" t="s">
         <v>27</v>
-      </c>
-      <c r="O232" t="s">
-        <v>28</v>
       </c>
       <c r="P232">
         <v>1</v>
@@ -28433,10 +28436,10 @@
         <v>26</v>
       </c>
       <c r="N233" t="s">
+        <v>29</v>
+      </c>
+      <c r="O233" t="s">
         <v>27</v>
-      </c>
-      <c r="O233" t="s">
-        <v>28</v>
       </c>
       <c r="P233">
         <v>1</v>
@@ -28495,10 +28498,10 @@
         <v>26</v>
       </c>
       <c r="N234" t="s">
+        <v>29</v>
+      </c>
+      <c r="O234" t="s">
         <v>27</v>
-      </c>
-      <c r="O234" t="s">
-        <v>28</v>
       </c>
       <c r="P234">
         <v>1</v>
@@ -28557,10 +28560,10 @@
         <v>26</v>
       </c>
       <c r="N235" t="s">
+        <v>29</v>
+      </c>
+      <c r="O235" t="s">
         <v>27</v>
-      </c>
-      <c r="O235" t="s">
-        <v>28</v>
       </c>
       <c r="P235">
         <v>1</v>
@@ -28619,10 +28622,10 @@
         <v>26</v>
       </c>
       <c r="N236" t="s">
+        <v>29</v>
+      </c>
+      <c r="O236" t="s">
         <v>27</v>
-      </c>
-      <c r="O236" t="s">
-        <v>28</v>
       </c>
       <c r="P236">
         <v>1</v>
@@ -28681,10 +28684,10 @@
         <v>26</v>
       </c>
       <c r="N237" t="s">
+        <v>29</v>
+      </c>
+      <c r="O237" t="s">
         <v>27</v>
-      </c>
-      <c r="O237" t="s">
-        <v>28</v>
       </c>
       <c r="P237">
         <v>1</v>
@@ -28743,10 +28746,10 @@
         <v>26</v>
       </c>
       <c r="N238" t="s">
+        <v>29</v>
+      </c>
+      <c r="O238" t="s">
         <v>27</v>
-      </c>
-      <c r="O238" t="s">
-        <v>28</v>
       </c>
       <c r="P238">
         <v>1</v>
@@ -28805,10 +28808,10 @@
         <v>26</v>
       </c>
       <c r="N239" t="s">
+        <v>29</v>
+      </c>
+      <c r="O239" t="s">
         <v>27</v>
-      </c>
-      <c r="O239" t="s">
-        <v>28</v>
       </c>
       <c r="P239">
         <v>1</v>
@@ -28867,10 +28870,10 @@
         <v>26</v>
       </c>
       <c r="N240" t="s">
+        <v>29</v>
+      </c>
+      <c r="O240" t="s">
         <v>27</v>
-      </c>
-      <c r="O240" t="s">
-        <v>28</v>
       </c>
       <c r="P240">
         <v>1</v>
@@ -28929,10 +28932,10 @@
         <v>26</v>
       </c>
       <c r="N241" t="s">
+        <v>29</v>
+      </c>
+      <c r="O241" t="s">
         <v>27</v>
-      </c>
-      <c r="O241" t="s">
-        <v>28</v>
       </c>
       <c r="P241">
         <v>1</v>
@@ -28991,10 +28994,10 @@
         <v>26</v>
       </c>
       <c r="N242" t="s">
+        <v>29</v>
+      </c>
+      <c r="O242" t="s">
         <v>27</v>
-      </c>
-      <c r="O242" t="s">
-        <v>28</v>
       </c>
       <c r="P242">
         <v>1</v>
@@ -29053,10 +29056,10 @@
         <v>26</v>
       </c>
       <c r="N243" t="s">
+        <v>29</v>
+      </c>
+      <c r="O243" t="s">
         <v>27</v>
-      </c>
-      <c r="O243" t="s">
-        <v>28</v>
       </c>
       <c r="P243">
         <v>1</v>
@@ -29115,10 +29118,10 @@
         <v>26</v>
       </c>
       <c r="N244" t="s">
+        <v>29</v>
+      </c>
+      <c r="O244" t="s">
         <v>27</v>
-      </c>
-      <c r="O244" t="s">
-        <v>28</v>
       </c>
       <c r="P244">
         <v>1</v>
@@ -29177,10 +29180,10 @@
         <v>26</v>
       </c>
       <c r="N245" t="s">
+        <v>29</v>
+      </c>
+      <c r="O245" t="s">
         <v>27</v>
-      </c>
-      <c r="O245" t="s">
-        <v>28</v>
       </c>
       <c r="P245">
         <v>1</v>
@@ -29239,10 +29242,10 @@
         <v>26</v>
       </c>
       <c r="N246" t="s">
+        <v>29</v>
+      </c>
+      <c r="O246" t="s">
         <v>27</v>
-      </c>
-      <c r="O246" t="s">
-        <v>28</v>
       </c>
       <c r="P246">
         <v>1</v>
@@ -29301,10 +29304,10 @@
         <v>26</v>
       </c>
       <c r="N247" t="s">
+        <v>29</v>
+      </c>
+      <c r="O247" t="s">
         <v>27</v>
-      </c>
-      <c r="O247" t="s">
-        <v>28</v>
       </c>
       <c r="P247">
         <v>1</v>
@@ -29363,10 +29366,10 @@
         <v>26</v>
       </c>
       <c r="N248" t="s">
+        <v>29</v>
+      </c>
+      <c r="O248" t="s">
         <v>27</v>
-      </c>
-      <c r="O248" t="s">
-        <v>28</v>
       </c>
       <c r="P248">
         <v>1</v>
@@ -29425,10 +29428,10 @@
         <v>26</v>
       </c>
       <c r="N249" t="s">
+        <v>29</v>
+      </c>
+      <c r="O249" t="s">
         <v>27</v>
-      </c>
-      <c r="O249" t="s">
-        <v>28</v>
       </c>
       <c r="P249">
         <v>1</v>
@@ -29487,10 +29490,10 @@
         <v>26</v>
       </c>
       <c r="N250" t="s">
+        <v>29</v>
+      </c>
+      <c r="O250" t="s">
         <v>27</v>
-      </c>
-      <c r="O250" t="s">
-        <v>28</v>
       </c>
       <c r="P250">
         <v>1</v>
@@ -29549,10 +29552,10 @@
         <v>26</v>
       </c>
       <c r="N251" t="s">
+        <v>29</v>
+      </c>
+      <c r="O251" t="s">
         <v>27</v>
-      </c>
-      <c r="O251" t="s">
-        <v>28</v>
       </c>
       <c r="P251">
         <v>1</v>
@@ -29611,10 +29614,10 @@
         <v>26</v>
       </c>
       <c r="N252" t="s">
+        <v>29</v>
+      </c>
+      <c r="O252" t="s">
         <v>27</v>
-      </c>
-      <c r="O252" t="s">
-        <v>28</v>
       </c>
       <c r="P252">
         <v>1</v>
@@ -29673,10 +29676,10 @@
         <v>26</v>
       </c>
       <c r="N253" t="s">
+        <v>29</v>
+      </c>
+      <c r="O253" t="s">
         <v>27</v>
-      </c>
-      <c r="O253" t="s">
-        <v>28</v>
       </c>
       <c r="P253">
         <v>1</v>
@@ -29735,10 +29738,10 @@
         <v>26</v>
       </c>
       <c r="N254" t="s">
+        <v>29</v>
+      </c>
+      <c r="O254" t="s">
         <v>27</v>
-      </c>
-      <c r="O254" t="s">
-        <v>28</v>
       </c>
       <c r="P254">
         <v>1</v>
@@ -29797,10 +29800,10 @@
         <v>26</v>
       </c>
       <c r="N255" t="s">
+        <v>29</v>
+      </c>
+      <c r="O255" t="s">
         <v>27</v>
-      </c>
-      <c r="O255" t="s">
-        <v>28</v>
       </c>
       <c r="P255">
         <v>1</v>
@@ -29859,10 +29862,10 @@
         <v>26</v>
       </c>
       <c r="N256" t="s">
+        <v>29</v>
+      </c>
+      <c r="O256" t="s">
         <v>27</v>
-      </c>
-      <c r="O256" t="s">
-        <v>28</v>
       </c>
       <c r="P256">
         <v>1</v>
@@ -29921,10 +29924,10 @@
         <v>26</v>
       </c>
       <c r="N257" t="s">
+        <v>29</v>
+      </c>
+      <c r="O257" t="s">
         <v>27</v>
-      </c>
-      <c r="O257" t="s">
-        <v>28</v>
       </c>
       <c r="P257">
         <v>1</v>
@@ -29983,16 +29986,16 @@
         <v>26</v>
       </c>
       <c r="N258" t="s">
+        <v>29</v>
+      </c>
+      <c r="O258" t="s">
         <v>27</v>
-      </c>
-      <c r="O258" t="s">
-        <v>28</v>
       </c>
       <c r="P258">
         <v>1</v>
       </c>
       <c r="Q258">
-        <f t="shared" ref="Q258:Q321" si="12">1/(1+2*(1+(H258-I258)^2/B258)*(R258/(1-R258)))</f>
+        <f t="shared" ref="Q258:Q266" si="12">1/(1+2*(1+(H258-I258)^2/B258)*(R258/(1-R258)))</f>
         <v>0.19517523186323277</v>
       </c>
       <c r="R258">
@@ -30000,7 +30003,7 @@
         <v>0.32909462944544193</v>
       </c>
       <c r="S258">
-        <f t="shared" ref="S258:S321" si="14">ASIN(SQRT(R258))*2/PI()*180</f>
+        <f t="shared" ref="S258:S266" si="14">ASIN(SQRT(R258))*2/PI()*180</f>
         <v>70.012767341728363</v>
       </c>
     </row>
@@ -30045,10 +30048,10 @@
         <v>26</v>
       </c>
       <c r="N259" t="s">
+        <v>29</v>
+      </c>
+      <c r="O259" t="s">
         <v>27</v>
-      </c>
-      <c r="O259" t="s">
-        <v>28</v>
       </c>
       <c r="P259">
         <v>1</v>
@@ -30107,10 +30110,10 @@
         <v>26</v>
       </c>
       <c r="N260" t="s">
+        <v>29</v>
+      </c>
+      <c r="O260" t="s">
         <v>27</v>
-      </c>
-      <c r="O260" t="s">
-        <v>28</v>
       </c>
       <c r="P260">
         <v>1</v>
@@ -30169,10 +30172,10 @@
         <v>26</v>
       </c>
       <c r="N261" t="s">
+        <v>29</v>
+      </c>
+      <c r="O261" t="s">
         <v>27</v>
-      </c>
-      <c r="O261" t="s">
-        <v>28</v>
       </c>
       <c r="P261">
         <v>1</v>
@@ -30231,10 +30234,10 @@
         <v>26</v>
       </c>
       <c r="N262" t="s">
+        <v>29</v>
+      </c>
+      <c r="O262" t="s">
         <v>27</v>
-      </c>
-      <c r="O262" t="s">
-        <v>28</v>
       </c>
       <c r="P262">
         <v>1</v>
@@ -30293,10 +30296,10 @@
         <v>26</v>
       </c>
       <c r="N263" t="s">
+        <v>29</v>
+      </c>
+      <c r="O263" t="s">
         <v>27</v>
-      </c>
-      <c r="O263" t="s">
-        <v>28</v>
       </c>
       <c r="P263">
         <v>1</v>
@@ -30355,10 +30358,10 @@
         <v>26</v>
       </c>
       <c r="N264" t="s">
+        <v>29</v>
+      </c>
+      <c r="O264" t="s">
         <v>27</v>
-      </c>
-      <c r="O264" t="s">
-        <v>28</v>
       </c>
       <c r="P264">
         <v>1</v>
@@ -30417,10 +30420,10 @@
         <v>26</v>
       </c>
       <c r="N265" t="s">
+        <v>29</v>
+      </c>
+      <c r="O265" t="s">
         <v>27</v>
-      </c>
-      <c r="O265" t="s">
-        <v>28</v>
       </c>
       <c r="P265">
         <v>1</v>
@@ -30479,10 +30482,10 @@
         <v>26</v>
       </c>
       <c r="N266" t="s">
+        <v>29</v>
+      </c>
+      <c r="O266" t="s">
         <v>27</v>
-      </c>
-      <c r="O266" t="s">
-        <v>28</v>
       </c>
       <c r="P266">
         <v>1</v>
